--- a/security_arcitecture_design_askhseis/threat_model_threats.xlsx
+++ b/security_arcitecture_design_askhseis/threat_model_threats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\metaptyxiako_askhseis\security_arcitecture_design_askhseis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56F97ED-664D-4F09-B72C-C4C4ABD69E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F4B119-57D3-441A-85CD-44F913A9D4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4110" yWindow="465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,9 +112,6 @@
     <t>V4 (Access Control)</t>
   </si>
   <si>
-    <t>V12 (File Upload), V11.1 (Business Logic)</t>
-  </si>
-  <si>
     <t>V7 (Error Handling &amp; Logging)</t>
   </si>
   <si>
@@ -295,24 +292,15 @@
     <t>V5(Validation, Sanitization and Encoding)</t>
   </si>
   <si>
-    <t>ASVS V5.3.5 : Verify parameterized queries, ASVS V5.1.3 : Verify input validation is enforced on a trusted service layer</t>
-  </si>
-  <si>
     <t>ASVS: V7.1.4: Verify that each log event includes necessary information that would allow for a detailed investigation of the timeline when an event happens,  ASVS V7.3.3: Προστασία logs από τροποποίηση (access μόνο από admin, hashing logs, κ.λπ.).</t>
   </si>
   <si>
-    <t>ASVS: V4.2.1 (Verify that sensitive data and APIs are protected against Insecure Direct Object Reference (IDOR) attacks targeting creation, reading, updating and deleting records, such as creating or updating someone else's record, viewing everyone's records, or deleting all records,  V4.1.3 (Verify that the principle of least privilege exists)</t>
-  </si>
-  <si>
     <t>ASVS V12.1.1: Θέτουμε όριο μεγέθους (π.χ. 10MB). Απορρίπτουμε ή τερματίζουμε σύνδεση αν ξεπεραστεί, ASVS: V11.1.4: Verify that the application has anti-automation controls to protect against excessive calls such as mass data exfiltration, business logic requests, file uploads or denial of service attacks, ASVS V12.2.1: Verify that files obtained from untrusted sources are validated to be of expected type based on the file's content.</t>
   </si>
   <si>
     <t>ASVS V4.1.2: Verify that all user and data attributes and policy information used by access controls cannot be manipulated by end users unless specifically authorized, ASVS V4.2.1: Verify that sensitive data and APIs are protected against Insecure Direct Object Reference (IDOR) attacks targeting creation, reading, updating and deletion of records, such as creating or updating someone else's record, viewing everyone's records, or deleting all records, V4.1.3 (Verify that the principle of least privilege exists)</t>
   </si>
   <si>
-    <t>ASVS V2.4.1: Χρήση αλγορίθμων hashing,  ASVS V2.2.1: Rate limiting , CAPTCHA μετά από συγκεκριμένο αριθμό αποτυχημένων προσπαθειών,  ASVS V3.1.2: Κάθε φορά Καινούργια, μοναδικά και τυχαία session IDs</t>
-  </si>
-  <si>
     <r>
       <t>0</t>
     </r>
@@ -785,6 +773,18 @@
   </si>
   <si>
     <t>OVERALL DREAD SCORE == Damage + Reproducibility + Exploitability + Affected Users + Discoverability</t>
+  </si>
+  <si>
+    <t>ASVS V2.4.1: Χρήση αλγορίθμων hashing,  ASVS V2.2.1: Rate limiting , CAPTCHA μετά από συγκεκριμένο αριθμό αποτυχημένων προσπαθειών,  ASVS V3.1.2: μοναδικά και τυχαία session IDs</t>
+  </si>
+  <si>
+    <t>ASVS V5.3.4 : Verify parameterized queries, ASVS V5.1.3 : Verify that all input  is validated using positive validations ( allow lists)</t>
+  </si>
+  <si>
+    <t>ASVS: V4.2.1 (Verify that sensitive data and APIs are protected against Insecure Direct Object Reference (IDOR) attacks targeting creation, reading, updating and deleting records, such as creating or updating someone else's record, viewing everyone's records, or deleting all records,ASVS V4.1.2  RBAC,  V4.1.3 (Verify that the principle of least privilege exists)</t>
+  </si>
+  <si>
+    <t>V12 (File Upload), V11 (Business Logic)</t>
   </si>
 </sst>
 </file>
@@ -1150,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,13 +1193,13 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -1234,10 +1234,10 @@
         <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1269,10 +1269,10 @@
         <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1304,10 +1304,10 @@
         <v>22</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1342,7 +1342,7 @@
         <v>23</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1374,10 +1374,10 @@
         <v>21</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1412,7 +1412,7 @@
         <v>23</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1455,16 +1455,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
       <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
         <v>67</v>
-      </c>
-      <c r="D1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1472,13 +1472,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1486,10 +1486,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1497,10 +1497,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1508,13 +1508,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1522,13 +1522,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1536,13 +1536,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1550,13 +1550,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1564,10 +1564,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1575,10 +1575,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1586,13 +1586,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1600,10 +1600,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1611,10 +1611,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1622,13 +1622,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1636,13 +1636,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1650,10 +1650,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1661,10 +1661,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1672,10 +1672,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1683,10 +1683,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1694,10 +1694,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1705,13 +1705,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1719,13 +1719,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1733,10 +1733,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1744,13 +1744,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1758,13 +1758,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1772,13 +1772,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1786,10 +1786,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1797,13 +1797,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1811,13 +1811,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1825,13 +1825,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1839,13 +1839,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1853,13 +1853,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1867,10 +1867,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1878,10 +1878,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1889,13 +1889,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1903,10 +1903,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1914,10 +1914,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1925,10 +1925,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1936,13 +1936,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1950,10 +1950,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1961,10 +1961,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1972,10 +1972,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1983,10 +1983,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1994,13 +1994,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2023,142 +2023,142 @@
   <sheetData>
     <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2169,27 +2169,27 @@
     </row>
     <row r="43" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/security_arcitecture_design_askhseis/threat_model_threats.xlsx
+++ b/security_arcitecture_design_askhseis/threat_model_threats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\metaptyxiako_askhseis\security_arcitecture_design_askhseis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mr\my_projects\secArchDes\sec_arch_design-main\security_arcitecture_design_askhseis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F4B119-57D3-441A-85CD-44F913A9D4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4AE3E0-4A05-4D8B-A1A8-63D28F50A192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Threat Analysis" sheetId="1" r:id="rId1"/>
@@ -1150,27 +1150,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="51" style="1" customWidth="1"/>
-    <col min="11" max="11" width="64.85546875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="64.88671875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1400,10 +1400,10 @@
         <v>10</v>
       </c>
       <c r="G7" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H7" s="1">
-        <v>38.5</v>
+        <v>39.5</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>22</v>
@@ -1415,22 +1415,22 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C22" s="2"/>
     </row>
   </sheetData>
@@ -1446,14 +1446,14 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="60.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="60.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
     <col min="4" max="4" width="156" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2016,178 +2016,178 @@
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
     </row>
-    <row r="42" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
     </row>
-    <row r="43" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>118</v>
       </c>
